--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_38.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2684550.749754575</v>
+        <v>2752504.062687109</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17298407.14104213</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484457</v>
+        <v>278692.072591686</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4843076.612421856</v>
+        <v>4895144.054864585</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -668,7 +668,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>152.1362442630833</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>286.2721000371766</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -741,7 +741,7 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D3" t="n">
-        <v>94.13938596491226</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E3" t="n">
         <v>93.17921052631581</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>142.0902352657462</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>173.5591556145158</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>320.0331481255876</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -905,16 +905,16 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>269.8069587957187</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -975,7 +975,7 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C6" t="n">
-        <v>105.3918965517242</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D6" t="n">
         <v>94.13938596491228</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>134.1208237816739</v>
       </c>
       <c r="Y7" t="n">
-        <v>145.0187003691316</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1133,16 +1133,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>30.96465002000427</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>331.0719604558766</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1294,22 +1294,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>272.8327147226649</v>
+        <v>193.8659438253727</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1421,16 +1421,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561535</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>347.6963243270578</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1582,7 +1582,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>52.51170991984834</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>136.9505762815757</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>88.0136499937999</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1768,10 +1768,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>32.98066327132541</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1783,7 +1783,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>140.4342819615958</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1907,7 +1907,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>265.1412653998499</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2014,13 +2014,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>73.71535300152969</v>
+        <v>24.3431845617044</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>50.05924486566766</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2296,7 +2296,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>61.23284287475769</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2327,7 +2327,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948834</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>397.3838530629687</v>
@@ -2491,7 +2491,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>208.2631588479961</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2539,7 +2539,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>103.3456594571955</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2719,7 +2719,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I28" t="n">
-        <v>79.86552601431276</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2950,7 +2950,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>114.4749582105918</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3013,7 +3013,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3247,7 +3247,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>108.5103196251637</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>149.1682720212637</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.0905310873978</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>20.79102160255044</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.2363335358519</v>
+        <v>54.66258501924847</v>
       </c>
       <c r="T37" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>283.6733315691424</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.5227407452992</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.36072825394001</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.2363335358519</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>283.6733315691424</v>
+        <v>169.9259850434489</v>
       </c>
       <c r="W40" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>6.379308305517379</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>96.28657619148103</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864827</v>
       </c>
       <c r="Y41" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>40.30029561259629</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.5227407452992</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.0905310873978</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.36072825394001</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.79102160255044</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.2363335358519</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.2360492602943</v>
+        <v>161.4887027346009</v>
       </c>
       <c r="V43" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>160.1609349264575</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W44" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.0905310873978</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.36072825394001</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.79102160255044</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>23.00926712971755</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146214</v>
+        <v>283.7392223402076</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>249.6371535640349</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>217.7677727788835</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>188.0334319775828</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4337,13 +4337,13 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M2" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="N2" t="n">
         <v>267.8706684926505</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>687.9235674375537</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1107.976466382457</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4355,25 +4355,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V2" t="n">
-        <v>1408.019692669128</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W2" t="n">
-        <v>1003.164238080161</v>
+        <v>729.3865718653431</v>
       </c>
       <c r="X2" t="n">
-        <v>584.0217746594717</v>
+        <v>310.2441084446538</v>
       </c>
       <c r="Y2" t="n">
-        <v>579.7760549995292</v>
+        <v>305.9983887847113</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,28 +4395,28 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="N3" t="n">
         <v>319.8519551513677</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.94366860160834</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4495,13 +4495,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="M4" t="n">
-        <v>815.3347072823371</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="N4" t="n">
-        <v>1235.38760622724</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
-        <v>1235.38760622724</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4510,28 +4510,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="U4" t="n">
-        <v>1013.629614209975</v>
+        <v>1532.240118618369</v>
       </c>
       <c r="V4" t="n">
-        <v>726.6741060804052</v>
+        <v>1532.240118618369</v>
       </c>
       <c r="W4" t="n">
-        <v>454.6477016666967</v>
+        <v>1532.240118618369</v>
       </c>
       <c r="X4" t="n">
-        <v>209.2559470001092</v>
+        <v>1532.240118618369</v>
       </c>
       <c r="Y4" t="n">
-        <v>33.94366860160834</v>
+        <v>1304.820447932477</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>442.640221925911</v>
+        <v>975.8202272924905</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>941.7181585163178</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>909.8487777311664</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>880.1144369298656</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>452.2470073390733</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233717</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233717</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="L5" t="n">
-        <v>437.0247332457074</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="M5" t="n">
-        <v>857.0776321906106</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="N5" t="n">
-        <v>1277.130531135514</v>
+        <v>557.7649106726471</v>
       </c>
       <c r="O5" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.865694717427</v>
       </c>
       <c r="P5" t="n">
-        <v>1697.183430080417</v>
+        <v>1805.966478762207</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2352.465264720802</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2301.552102346897</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2042.329799663914</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1679.712849597741</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>1274.857395008774</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1855120707613</v>
+        <v>1002.325113396937</v>
       </c>
       <c r="Y5" t="n">
-        <v>868.9397924108188</v>
+        <v>998.0793937369942</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174123</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.1680387732647</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>431.6596472970907</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1113.00182921349</v>
+        <v>1129.490547201359</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>956.9288356845835</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>791.0508428861062</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>621.2928391368434</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>444.5857850985997</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.0923358148019</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947718</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>411.7705263253026</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>829.9804080932637</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>813.4916901053949</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>2521.619329473859</v>
       </c>
       <c r="U7" t="n">
-        <v>1451.303983658873</v>
+        <v>2243.186328726964</v>
       </c>
       <c r="V7" t="n">
-        <v>1451.303983658873</v>
+        <v>1956.230820597394</v>
       </c>
       <c r="W7" t="n">
-        <v>1451.303983658873</v>
+        <v>1684.204416183686</v>
       </c>
       <c r="X7" t="n">
-        <v>1451.303983658873</v>
+        <v>1548.728836606238</v>
       </c>
       <c r="Y7" t="n">
-        <v>1304.820447932477</v>
+        <v>1321.309165920346</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.8932738874814</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C8" t="n">
-        <v>119.7912051113087</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D8" t="n">
-        <v>87.92182432615731</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>58.18748352485655</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1294.102365436318</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1334.566480014244</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>929.7110254252771</v>
+        <v>2638.783402168797</v>
       </c>
       <c r="X8" t="n">
-        <v>510.5685620045878</v>
+        <v>2219.640938748108</v>
       </c>
       <c r="Y8" t="n">
-        <v>176.1524403319851</v>
+        <v>1811.354815047762</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>319.8519551513677</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>206.5053801183834</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>726.9120049407049</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1146.964903885608</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1146.964903885608</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1566.63415311139</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>1418.750429333523</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="V10" t="n">
-        <v>1143.161828603558</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>871.1354241898498</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>625.7436695232623</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>398.3239988373705</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.314042074141</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.171569257564</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.261784432008</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.487039590304</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6196099995113</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2217786227752</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>97.09162406599147</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.67483469313147</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>96.67483469313147</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K11" t="n">
-        <v>96.67483469313147</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L11" t="n">
-        <v>96.67483469313147</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M11" t="n">
-        <v>1253.722669903682</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N11" t="n">
-        <v>2379.453653340129</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3289.779009111526</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>4118.088883944923</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4664.587669903517</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>4833.741734656573</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>4750.08986084041</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4750.08986084041</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4490.867558157427</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>4128.250608091254</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.042199680084</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.899736259395</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.613612559048</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.8465796844242</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.3901185210665</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.2998296676198</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.1794149945735</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.7955766107351</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.410486876919</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.67483469313147</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>96.67483469313147</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>96.67483469313147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>96.67483469313147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>96.67483469313147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>96.67483469313147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>96.67483469313147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>282.2797129663268</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.741818077601</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.91459617194</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.459158620323</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.280514950925</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1389.943967950893</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.826450012893</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.503695746087</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6362599849666</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.1504807641874</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1010.14172033084</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C13" t="n">
-        <v>837.5800088140654</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D13" t="n">
-        <v>671.7020160155881</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E13" t="n">
-        <v>501.9440122663254</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F13" t="n">
-        <v>325.2369582280816</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G13" t="n">
-        <v>325.2369582280816</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3347839184561</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>96.67483469313147</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.2545198578213</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0129744289569</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.222856196918</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.706723377831</v>
+        <v>1341.29272895548</v>
       </c>
       <c r="N13" t="n">
-        <v>1777.965526535475</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.634775761257</v>
+        <v>2203.220781338906</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.141669731599</v>
+        <v>2550.727675309248</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.916623301303</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="S13" t="n">
-        <v>2532.675254599299</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2286.795808177755</v>
+        <v>2313.799635050032</v>
       </c>
       <c r="U13" t="n">
-        <v>2233.753676945585</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V13" t="n">
-        <v>1946.798168816015</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W13" t="n">
-        <v>1674.771764402307</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X13" t="n">
-        <v>1429.380009735719</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y13" t="n">
-        <v>1201.960339049828</v>
+        <v>1092.659051657336</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.314042074142</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.171569257565</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.261784432008</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.487039590304</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6196099995113</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2217786227752</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H14" t="n">
-        <v>97.09162406599147</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I14" t="n">
-        <v>96.67483469313147</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>96.67483469313147</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K14" t="n">
-        <v>96.67483469313147</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L14" t="n">
-        <v>96.67483469313147</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M14" t="n">
-        <v>1253.722669903682</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N14" t="n">
-        <v>2379.453653340129</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3359.633319910436</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4187.943194743832</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4664.587669903517</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>4833.741734656573</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>4750.08986084041</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4530.02263371345</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4270.800331030467</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.897654269053</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.042199680086</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.899736259396</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.61361255905</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.8465796844242</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.3901185210665</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.2998296676198</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.1794149945735</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.7955766107351</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.410486876919</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.67483469313147</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>96.67483469313147</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>96.67483469313147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>96.67483469313147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>96.67483469313147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>96.67483469313147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>96.67483469313147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>282.2797129663268</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.741818077601</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.91459617194</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.459158620323</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.280514950925</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.943967950893</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.826450012893</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.503695746087</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6362599849666</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.1504807641874</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1175.732995305013</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C16" t="n">
-        <v>1003.171283788238</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D16" t="n">
-        <v>837.2932909897606</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="E16" t="n">
-        <v>667.5352872404978</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8282332022541</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2369582280817</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3347839184561</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>96.67483469313147</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.2545198578213</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0129744289569</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.222856196918</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.706723377831</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.965526535475</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.634775761257</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.141669731599</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.916623301303</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2532.6752545993</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2390.822444537082</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2112.389443790188</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>2112.389443790188</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1840.363039376479</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X16" t="n">
-        <v>1594.971284709892</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y16" t="n">
-        <v>1367.551614024</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2525.81182309218</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.669350275603</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.759565450048</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.984820608343</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>790.1173910175505</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>388.7195596408144</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>99.58940508403062</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>99.17261571117062</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>99.17261571117062</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>99.17261571117062</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>151.7095747961799</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M17" t="n">
-        <v>1308.757410006731</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N17" t="n">
-        <v>2434.488393443178</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3414.668060013484</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4242.97793484688</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4789.476720805475</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>4958.630785558531</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>4874.978911742368</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4654.911684615407</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4395.689381932423</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4033.07243186625</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3628.216977277283</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.397517277434</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2952.111393577088</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>605.3443607024634</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.8878995391057</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.797610685659</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.6771960126127</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>226.2933576287743</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.9082678949582</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>99.17261571117062</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>99.17261571117062</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>99.17261571117062</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>99.17261571117062</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>99.17261571117062</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>99.17261571117062</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>99.17261571117062</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>284.7774939843659</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1104.500660463564</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1645.23959909564</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1762.412377189979</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.956939638362</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.778295968964</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1392.441748968932</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1193.324231030932</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1008.001476764126</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>853.1340410030058</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.6482617822265</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1087.099453875677</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>914.5377423589022</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>748.6597495604249</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>578.9017458111621</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F19" t="n">
-        <v>402.1946917729183</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G19" t="n">
-        <v>327.7347392461208</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>187.8325649364953</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>99.17261571117062</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.7523008758605</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>460.5107554469961</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.7206372149572</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1338.20450439587</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1780.463307553515</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2200.132556779296</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.639450749638</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.83222561397</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.83222561397</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2556.590856911967</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2310.711410490422</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2310.711410490422</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>2023.755902360852</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1751.729497947144</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1506.337743280556</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1278.918072594664</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5738,10 +5738,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5756,25 +5756,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
         <v>5029.390139722817</v>
@@ -5783,16 +5783,16 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
         <v>2955.199618136697</v>
@@ -5826,25 +5826,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1015.441008084184</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C22" t="n">
-        <v>842.8792965674086</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>469.4349624223536</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>292.7279083841098</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057297</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1952.097456569359</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1680.07105215565</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1434.679297489063</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1207.259626803171</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009655</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E23" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6063,25 +6063,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6175,22 +6175,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2349.312254352388</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2070.879253605493</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1783.923745475924</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1511.897341062215</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6300,25 +6300,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1003.573296407379</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>831.0115848906044</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>665.1335920921271</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>665.1335920921271</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F28" t="n">
-        <v>488.4265380538832</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G28" t="n">
-        <v>322.8352630797109</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H28" t="n">
-        <v>182.9330887700854</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303137</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173567</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759859</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.992967093271</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6537,25 +6537,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1035.728611060351</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405613</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420841</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928213</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1454.96690046523</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1227.547229779338</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6698,10 +6698,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L32" t="n">
         <v>306.120802776629</v>
@@ -6774,25 +6774,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6880,19 +6880,19 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
         <v>1617.386921419177</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2525.85493345824</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2088.129250014523</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.636254561827</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1219.278299092982</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>791.82765887505</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>390.8466168711739</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H35" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I35" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>299.7413736002001</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M35" t="n">
-        <v>1456.789208810751</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>2582.520192247198</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3562.699858817504</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4391.009733650901</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4937.508519609495</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4803.777062165147</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4544.971548855024</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4182.77138816171</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3359.607048897774</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2951.737714570288</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>406.7582466617393</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.133251687251</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.133251687251</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.133251687251</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.133251687251</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>102.133251687251</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>102.133251687251</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>287.7381299604466</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1075.244545654731</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>903.0996235108161</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>752.4246012671153</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>583.0833868907126</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>406.7931222253288</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>241.6186366240165</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H37" t="n">
-        <v>102.133251687251</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>189.1214321162809</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>464.2883819517565</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>882.9067589840578</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2701.059791783003</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2542.23521245386</v>
+        <v>2642.287896536276</v>
       </c>
       <c r="T37" t="n">
-        <v>2296.772555405175</v>
+        <v>2396.408450114731</v>
       </c>
       <c r="U37" t="n">
-        <v>2296.772555405175</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V37" t="n">
-        <v>2010.233836648466</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W37" t="n">
-        <v>1738.624221607617</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>1493.64925631389</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1266.646375000858</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2525.854933458239</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2088.129250014523</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.636254561828</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>791.8276588750505</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>390.8466168711739</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>299.7413736002001</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>299.7413736002001</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M38" t="n">
-        <v>1456.789208810751</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N38" t="n">
-        <v>2582.520192247198</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3562.699858817504</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4391.009733650901</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4937.508519609495</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5023.427499919248</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4803.777062165147</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4544.971548855024</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4182.77138816171</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3778.332722945603</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3359.607048897774</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2951.737714570288</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.7582466617393</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.133251687251</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.133251687251</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.133251687251</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.133251687251</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.133251687251</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>102.133251687251</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>287.7381299604466</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1038.788501752347</v>
+        <v>927.0677766831641</v>
       </c>
       <c r="C40" t="n">
-        <v>866.6435796084319</v>
+        <v>754.506065166389</v>
       </c>
       <c r="D40" t="n">
-        <v>701.1823761828146</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E40" t="n">
-        <v>531.8411618064118</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F40" t="n">
-        <v>355.550897141028</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G40" t="n">
-        <v>190.3764115397157</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>190.3764115397157</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>189.121432116281</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>464.2883819517567</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>882.9067589840579</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1342.799121429311</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.466419851296</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2205.544164341417</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2553.459553576099</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2722.060823704771</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2563.236244375628</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2317.773587326943</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2039.757375952909</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1753.2186571962</v>
+        <v>1863.724225168339</v>
       </c>
       <c r="W40" t="n">
-        <v>1481.609042155351</v>
+        <v>1591.697820754631</v>
       </c>
       <c r="X40" t="n">
-        <v>1236.634076861623</v>
+        <v>1346.306066088043</v>
       </c>
       <c r="Y40" t="n">
-        <v>1230.190331098474</v>
+        <v>1118.886395402151</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2523.357152440201</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2085.631468996485</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1650.13847354379</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1216.780518074945</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>789.3298778570124</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>388.3488358531363</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
-        <v>99.63547066921188</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>99.63547066921188</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>99.63547066921188</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>99.63547066921188</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L41" t="n">
-        <v>174.8523226982423</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M41" t="n">
-        <v>1331.900157908793</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N41" t="n">
-        <v>2457.63114134524</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3437.810807915546</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4266.120682748942</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4812.619468707538</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>4981.773533460594</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>4898.538449017291</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4801.279281147108</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4542.473767836985</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4180.273607143672</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3775.834941927565</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3357.109267879736</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2949.239933552249</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>605.8072156605047</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>499.350754497147</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>404.2604656437002</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.1400509706539</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>226.7562125868155</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>141.3711228529994</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>99.63547066921188</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>99.63547066921188</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>99.63547066921188</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>99.63547066921188</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>99.63547066921188</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>99.63547066921188</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>99.63547066921188</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>285.2403489424073</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1645.702454053681</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1762.875232148021</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1699.419794596404</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1569.241150927005</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1392.904603926974</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1193.787085988973</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1008.464331722167</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>853.596895961047</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.1111167402678</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1040.193210311342</v>
+        <v>927.0677766831641</v>
       </c>
       <c r="C43" t="n">
-        <v>868.0482881674272</v>
+        <v>754.506065166389</v>
       </c>
       <c r="D43" t="n">
-        <v>702.5870847418099</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E43" t="n">
-        <v>533.2458703654072</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F43" t="n">
-        <v>492.5385010597544</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G43" t="n">
-        <v>327.3640154584421</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>187.8786305216765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>99.63547066921188</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.6236510982418</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7906009337175</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>880.4089779660186</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1340.301340411272</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1782.968638833257</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.046383323378</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.96177255806</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2719.563042686732</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2698.562010764965</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2539.737431435822</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2539.737431435822</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2261.721220061787</v>
+        <v>2150.679733297909</v>
       </c>
       <c r="V43" t="n">
-        <v>1975.182501305077</v>
+        <v>1863.724225168339</v>
       </c>
       <c r="W43" t="n">
-        <v>1703.572886264229</v>
+        <v>1591.697820754631</v>
       </c>
       <c r="X43" t="n">
-        <v>1458.597920970501</v>
+        <v>1346.306066088043</v>
       </c>
       <c r="Y43" t="n">
-        <v>1231.595039657469</v>
+        <v>1118.886395402151</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2246.554654575833</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1808.828971132117</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1647.05024898418</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1213.692293515335</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>786.2416532974028</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>385.2606112935266</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>96.5472461096029</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>96.5472461096029</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>96.5472461096029</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>96.5472461096029</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L44" t="n">
-        <v>96.5472461096029</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M44" t="n">
-        <v>1253.595081320154</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N44" t="n">
-        <v>2303.219913364791</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3283.399579935097</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4111.709454768494</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4658.208240727088</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>4827.362305480145</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>4744.127221036842</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4524.47678328274</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4265.671269972617</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>3903.471109279303</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3499.032444063197</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>3080.306770015367</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2672.437435687881</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.7189911008957</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.262529937538</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.1722410840912</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.0518264110449</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.6679880272065</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.2828982933904</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.5472461096029</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>96.5472461096029</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>96.5472461096029</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>96.5472461096029</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L45" t="n">
-        <v>96.5472461096029</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M45" t="n">
-        <v>96.5472461096029</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N45" t="n">
-        <v>96.5472461096029</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O45" t="n">
-        <v>282.1521243827982</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.614229494072</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.787007588412</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.331570036795</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.152926367397</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1389.816379367365</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.698861429364</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.376107162558</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.5086714014381</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.0228921806588</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1172.687881111464</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>1000.542958967549</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>835.081755541932</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>665.7405411655292</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>489.4502765001454</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>324.2757908988331</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>184.7904059620676</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>96.5472461096029</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.5354265386328</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.7023763741086</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>877.3207534064097</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1337.213115851663</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1779.880414273648</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2199.958158763769</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2547.873547998451</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2716.474818127123</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2695.473786205355</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2672.232102235943</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2672.232102235943</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2394.215890861909</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>2107.677172105199</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1836.067557064351</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1591.092591770623</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1364.089710457592</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7985,16 +7985,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8052,10 +8052,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>424.2958575201043</v>
@@ -8143,16 +8143,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>296.5687363523682</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8219,25 +8219,25 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201044</v>
+        <v>512.4570950335051</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>385.0780411188016</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>22.94960388476193</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8462,19 +8462,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201043</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.1525905495951</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,10 +8526,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8617,19 +8617,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>131.8679565343714</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M11" t="n">
         <v>1168.735187081365</v>
@@ -8702,7 +8702,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>919.5205613852495</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>481.459065817864</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>53.06763543940328</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10422,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10440,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>199.6041635484335</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234299</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10823,10 +10823,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>199.6041635484335</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234299</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>75.9766182111419</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -11133,10 +11133,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11300,13 +11300,13 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>1060.227103075391</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11370,10 +11370,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>53.11057571601919</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>223.1369608195774</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>88.19489769745709</v>
       </c>
     </row>
     <row r="14">
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>270.9771305717118</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>131.2385495991671</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,13 +23704,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>102.9863699957335</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>149.8097733866325</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>90.22000922290091</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>113.8761173587629</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>222.8531101735161</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>35.15749310933322</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I28" t="n">
-        <v>7.907823718758641</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>56.36113619101552</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>14.63831937009741</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.36072825394001</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,16 +25360,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.2360492602943</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.0905310873978</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.79102160255044</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>114.1599680048249</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.353544194384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25679,7 +25679,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>121.1673571850793</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>134.2270664061336</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244295</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.0080304781979</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1599680048248</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>270.977130571711</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>134.2270664061344</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
-        <v>243.0080304781979</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>404230.2436350752</v>
+        <v>421486.0673098819</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>404230.2436350752</v>
+        <v>421486.0673098819</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>411946.1809406211</v>
+        <v>421486.0673098819</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>421486.0673098819</v>
+        <v>421486.0673098817</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>421486.0673098819</v>
+        <v>421486.0673098817</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>421674.9420521476</v>
+        <v>421486.0673098819</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>421674.9420521476</v>
+        <v>421486.0673098817</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>413959.0047466018</v>
+        <v>421486.0673098819</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>404419.118377341</v>
+        <v>421486.0673098819</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>509339.9538958882</v>
+        <v>509339.9538958881</v>
       </c>
       <c r="C2" t="n">
         <v>509339.9538958882</v>
@@ -26320,40 +26320,40 @@
         <v>509339.9538958881</v>
       </c>
       <c r="E2" t="n">
-        <v>480023.4143166521</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="F2" t="n">
-        <v>480023.414316652</v>
+        <v>500514.7049304847</v>
       </c>
       <c r="G2" t="n">
-        <v>489186.0898669877</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="H2" t="n">
+        <v>500514.7049304849</v>
+      </c>
+      <c r="I2" t="n">
+        <v>500514.7049304847</v>
+      </c>
+      <c r="J2" t="n">
         <v>500514.7049304848</v>
-      </c>
-      <c r="I2" t="n">
-        <v>500514.7049304848</v>
-      </c>
-      <c r="J2" t="n">
-        <v>500514.7049304847</v>
       </c>
       <c r="K2" t="n">
         <v>500514.7049304848</v>
       </c>
       <c r="L2" t="n">
-        <v>500514.7049304847</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="M2" t="n">
-        <v>500738.9936869255</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="N2" t="n">
-        <v>500738.9936869254</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="O2" t="n">
-        <v>491576.3181365898</v>
+        <v>500514.7049304849</v>
       </c>
       <c r="P2" t="n">
-        <v>480247.7030730926</v>
+        <v>500514.7049304849</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501654</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998241</v>
       </c>
       <c r="E3" t="n">
-        <v>234126.8263659349</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8557.553879115771</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>10415.38475254427</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449903</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877281</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622019</v>
       </c>
       <c r="M3" t="n">
-        <v>195343.3712995835</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,25 +26418,25 @@
         <v>169168.0932697598</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>121997.5637970937</v>
       </c>
       <c r="D4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>773.3207905476647</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="F4" t="n">
-        <v>773.3207905476646</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="G4" t="n">
-        <v>788.0819194609373</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="H4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="I4" t="n">
-        <v>806.3323907826432</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="J4" t="n">
         <v>806.3323907826023</v>
@@ -26448,16 +26448,16 @@
         <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
-        <v>1222.551252183134</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="N4" t="n">
-        <v>1222.551252183134</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>1207.790123269861</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="P4" t="n">
-        <v>1189.539651948196</v>
+        <v>806.3323907826023</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800265</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73472.87436677991</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>73472.87436677991</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>75371.18794048966</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77655.95995743989</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77655.95995743989</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>75757.64638373013</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>73410.5957184273</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>138555.7718291961</v>
       </c>
       <c r="C6" t="n">
-        <v>280747.0724889061</v>
+        <v>248798.4083957754</v>
       </c>
       <c r="D6" t="n">
-        <v>280747.0724889059</v>
+        <v>310095.4275658973</v>
       </c>
       <c r="E6" t="n">
-        <v>171650.3927933896</v>
+        <v>239611.8003734773</v>
       </c>
       <c r="F6" t="n">
-        <v>405777.2191593244</v>
+        <v>421966.9095945269</v>
       </c>
       <c r="G6" t="n">
-        <v>404469.2661279213</v>
+        <v>421966.909594527</v>
       </c>
       <c r="H6" t="n">
-        <v>411574.7491813655</v>
+        <v>421966.9095945271</v>
       </c>
       <c r="I6" t="n">
-        <v>421990.1339339096</v>
+        <v>421966.9095945269</v>
       </c>
       <c r="J6" t="n">
-        <v>310975.6685889193</v>
+        <v>310952.4442495368</v>
       </c>
       <c r="K6" t="n">
-        <v>421990.1339339096</v>
+        <v>368921.0549557542</v>
       </c>
       <c r="L6" t="n">
-        <v>421990.1339339096</v>
+        <v>412574.6078679049</v>
       </c>
       <c r="M6" t="n">
-        <v>226517.111177719</v>
+        <v>269766.7386565394</v>
       </c>
       <c r="N6" t="n">
-        <v>421860.4824773024</v>
+        <v>421966.909594527</v>
       </c>
       <c r="O6" t="n">
-        <v>414610.8816295898</v>
+        <v>421966.9095945271</v>
       </c>
       <c r="P6" t="n">
-        <v>405647.5677027171</v>
+        <v>421966.9095945271</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1208.435433664143</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1208.435433664143</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1239.657696389633</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1245.443383365149</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1206.840576370036</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483604</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939223</v>
       </c>
       <c r="E4" t="n">
-        <v>784.139576144039</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>31.22226272548943</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>38.60280699511235</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201046</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483604</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939223</v>
       </c>
       <c r="M4" t="n">
-        <v>782.5447188499315</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483604</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939223</v>
       </c>
       <c r="M4" t="n">
-        <v>784.139576144039</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>31.22226272548943</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>38.60280699511235</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27388,7 +27388,7 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>271.4525110318011</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27397,7 +27397,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>72.71868052833514</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.5584354736795</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.58631836451698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>113.7278999628234</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27625,16 +27625,16 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>145.1440799907637</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27825,22 +27825,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>108.8170133382478</v>
       </c>
       <c r="Y7" t="n">
-        <v>80.12677360990122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,16 +27853,16 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27871,7 +27871,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>369.8422500230727</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>73.13130200746645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28014,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,16 +28059,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>11.25323832560889</v>
+        <v>90.22000922290115</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>7.54122690220053e-13</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4126214791313976</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34705,16 +34705,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34772,10 +34772,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34787,7 +34787,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>424.2958575201043</v>
@@ -34863,16 +34863,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>296.5687363523682</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34939,25 +34939,25 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201044</v>
+        <v>512.4570950335051</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35024,19 +35024,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>385.0780411188016</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684647</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,19 +35100,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>22.94960388476193</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35182,19 +35182,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201043</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.1525905495951</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,10 +35246,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,19 +35337,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>131.8679565343714</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M11" t="n">
         <v>1168.735187081365</v>
@@ -35422,7 +35422,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>919.5205613852495</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645595</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>481.459065817864</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>170.862691669754</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35817,7 +35817,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35887,7 +35887,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>53.06763543940328</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,10 +35975,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36048,7 +36048,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -36124,7 +36124,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,10 +36212,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,10 +36449,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,10 +36686,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37160,10 +37160,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37309,7 +37309,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>199.6041635484335</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234299</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.86684891821199</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.5377398436901</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,10 +37543,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>199.6041635484335</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234299</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.86684891821207</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>75.9766182111419</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37871,10 +37871,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.86684891821207</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.5377398436901</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>424.3209540304256</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,13 +38020,13 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>1060.227103075391</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38108,13 +38108,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.86684891821207</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
